--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_282.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_282.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,678 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[('0:01:34.680000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.100000', '0:00:15.420000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>schubert-winterreise_173</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:09.600000', '0:00:25.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5789473684210527</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3860294117647059</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:38.900000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.14, 16.64)]</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.32, 46.64)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(31.74, 33.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
